--- a/샘플데이터/테이블명세-양식.xlsx
+++ b/샘플데이터/테이블명세-양식.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\callor\Documents\개발자 문서\040. 데이터베이스 DataBase\데이터변환용 자료\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\callor\Documents\workspace\Reference 자료\샘플데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17854CFF-7D48-45CC-9865-44038EBFCAC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BDF011-A323-4C1B-B08B-1F32601487EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="도서정보 테이블 명세" sheetId="2" r:id="rId1"/>
+    <sheet name="테이블명세" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -103,9 +103,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -160,7 +157,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -350,14 +347,53 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -380,9 +416,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -407,9 +440,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -419,19 +449,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -440,25 +467,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -803,25 +839,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L20"/>
+  <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:L2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.88671875" style="1" customWidth="1"/>
-    <col min="8" max="9" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="1" customWidth="1"/>
     <col min="13" max="258" width="8.88671875" style="1"/>
     <col min="259" max="259" width="1.33203125" style="1" customWidth="1"/>
     <col min="260" max="260" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -1455,342 +1492,343 @@
     <col min="16141" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="24" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="28" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="28"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="28" t="s">
+      <c r="I2" s="22"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="30"/>
-    </row>
-    <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="16" t="s">
+    </row>
+    <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="29" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="27"/>
-    </row>
-    <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="9" t="s">
+      <c r="I3" s="23"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="25"/>
+    </row>
+    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="23"/>
-    </row>
-    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="20"/>
+    </row>
+    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="8">
+    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="18"/>
-    </row>
-    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="10">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="15"/>
+    </row>
+    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="9">
         <v>2</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="19"/>
-    </row>
-    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="10">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="18"/>
+    </row>
+    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="9">
         <v>3</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="19"/>
-    </row>
-    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="10">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="18"/>
+    </row>
+    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="9">
         <v>4</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="19"/>
-    </row>
-    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="10">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="18"/>
+    </row>
+    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="9">
         <v>5</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="19"/>
-    </row>
-    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="10">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="18"/>
+    </row>
+    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="9">
         <v>6</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="19"/>
-    </row>
-    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="10">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="18"/>
+    </row>
+    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="9">
         <v>7</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="19"/>
-    </row>
-    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="10">
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="18"/>
+    </row>
+    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="9">
         <v>8</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="19"/>
-    </row>
-    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="10">
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="18"/>
+    </row>
+    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="9">
         <v>9</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="19"/>
-    </row>
-    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="10">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="18"/>
+    </row>
+    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="9">
         <v>10</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="19"/>
-    </row>
-    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="10">
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="18"/>
+    </row>
+    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="9">
         <v>11</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="19"/>
-    </row>
-    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="10">
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="18"/>
+    </row>
+    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="9">
         <v>12</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="19"/>
-    </row>
-    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="10">
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="18"/>
+    </row>
+    <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="9">
         <v>13</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="19"/>
-    </row>
-    <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="10">
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="18"/>
+    </row>
+    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="9">
         <v>14</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="19"/>
-    </row>
-    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="10">
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="18"/>
+    </row>
+    <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="9">
         <v>15</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="20"/>
-    </row>
-    <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="12">
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="16"/>
+    </row>
+    <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="11">
         <v>16</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="21"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="D1:G2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
